--- a/data/pca/factorExposure/factorExposure_2008-12-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2008-12-08.xlsx
@@ -14,12 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
   <si>
     <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -686,34 +698,58 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.01873458259660808</v>
+        <v>-0.01740961387941897</v>
       </c>
       <c r="C2">
-        <v>0.01391935972214718</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>-0.01611153925630904</v>
+      </c>
+      <c r="D2">
+        <v>0.02489911285571608</v>
+      </c>
+      <c r="E2">
+        <v>0.01061838520210839</v>
+      </c>
+      <c r="F2">
+        <v>-0.004773189565812057</v>
+      </c>
+      <c r="G2">
+        <v>-0.03109910560171109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -721,175 +757,367 @@
       <c r="C3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.08105827911187127</v>
+        <v>-0.08446043739979527</v>
       </c>
       <c r="C4">
-        <v>0.08726362514122515</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>-0.08948682615783685</v>
+      </c>
+      <c r="D4">
+        <v>-0.01308536500905092</v>
+      </c>
+      <c r="E4">
+        <v>0.05539550088853812</v>
+      </c>
+      <c r="F4">
+        <v>0.08746071731238927</v>
+      </c>
+      <c r="G4">
+        <v>0.05081915721108444</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>-0.005078980868519432</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>0.0001547599001498597</v>
+      </c>
+      <c r="D5">
+        <v>-0.000984965484147208</v>
+      </c>
+      <c r="E5">
+        <v>-0.006285068384559485</v>
+      </c>
+      <c r="F5">
+        <v>-0.001452494293027324</v>
+      </c>
+      <c r="G5">
+        <v>0.0004903698596867498</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.166963849046658</v>
+        <v>-0.1684649065044663</v>
       </c>
       <c r="C6">
-        <v>-0.01272891088624745</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>0.004934863874367586</v>
+      </c>
+      <c r="D6">
+        <v>-0.0729450095218773</v>
+      </c>
+      <c r="E6">
+        <v>-0.05383874286822397</v>
+      </c>
+      <c r="F6">
+        <v>0.03875207139784929</v>
+      </c>
+      <c r="G6">
+        <v>-0.1378548671316004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.05329933955125948</v>
+        <v>-0.05527636090058687</v>
       </c>
       <c r="C7">
-        <v>0.05728198514752526</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>-0.05921635712194291</v>
+      </c>
+      <c r="D7">
+        <v>0.002120409697134183</v>
+      </c>
+      <c r="E7">
+        <v>0.1003429883617464</v>
+      </c>
+      <c r="F7">
+        <v>0.05574663714108033</v>
+      </c>
+      <c r="G7">
+        <v>0.03304860600323157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>0.04876593487629167</v>
+        <v>-0.04715602937067035</v>
       </c>
       <c r="C8">
-        <v>0.05605699719108633</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+        <v>-0.05401121843973723</v>
+      </c>
+      <c r="D8">
+        <v>0.04584848875480266</v>
+      </c>
+      <c r="E8">
+        <v>0.01200793550009575</v>
+      </c>
+      <c r="F8">
+        <v>-0.03154375588725226</v>
+      </c>
+      <c r="G8">
+        <v>0.005185013427744048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.05652195643828677</v>
+        <v>-0.06174266357932753</v>
       </c>
       <c r="C9">
-        <v>0.0964344283028081</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>-0.09620002346497994</v>
+      </c>
+      <c r="D9">
+        <v>-0.01486347414095826</v>
+      </c>
+      <c r="E9">
+        <v>0.0563786000602001</v>
+      </c>
+      <c r="F9">
+        <v>0.09340229549072883</v>
+      </c>
+      <c r="G9">
+        <v>0.05910446386769543</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.1187995473062014</v>
+        <v>-0.103075742704414</v>
       </c>
       <c r="C10">
-        <v>-0.1588307700610898</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>0.1410345210743973</v>
+      </c>
+      <c r="D10">
+        <v>0.08406488265059277</v>
+      </c>
+      <c r="E10">
+        <v>0.01399483083820117</v>
+      </c>
+      <c r="F10">
+        <v>-0.05495879612758751</v>
+      </c>
+      <c r="G10">
+        <v>0.05883827476818743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>0.08013318518565007</v>
+        <v>-0.07728300843451516</v>
       </c>
       <c r="C11">
-        <v>0.1355643117756133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+        <v>-0.1345559746192793</v>
+      </c>
+      <c r="D11">
+        <v>0.0153003170390012</v>
+      </c>
+      <c r="E11">
+        <v>0.04666639265784632</v>
+      </c>
+      <c r="F11">
+        <v>0.06206750042498477</v>
+      </c>
+      <c r="G11">
+        <v>0.1020646513202251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.08177369410972923</v>
+        <v>-0.0773232021170784</v>
       </c>
       <c r="C12">
-        <v>0.1630299703445518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>-0.1606888146209588</v>
+      </c>
+      <c r="D12">
+        <v>0.01165733172924572</v>
+      </c>
+      <c r="E12">
+        <v>0.08178128963661542</v>
+      </c>
+      <c r="F12">
+        <v>0.05270650929271641</v>
+      </c>
+      <c r="G12">
+        <v>0.09525430364245729</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.04110796388949834</v>
+        <v>-0.04335942628409947</v>
       </c>
       <c r="C13">
-        <v>0.07317175664505211</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+        <v>-0.07708782635708145</v>
+      </c>
+      <c r="D13">
+        <v>0.03182081519133485</v>
+      </c>
+      <c r="E13">
+        <v>0.08926679567950889</v>
+      </c>
+      <c r="F13">
+        <v>0.04222364794410881</v>
+      </c>
+      <c r="G13">
+        <v>0.02338344573850844</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.01967777283920896</v>
+        <v>-0.02212305274987094</v>
       </c>
       <c r="C14">
-        <v>0.04845410740742342</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>-0.05135756307100863</v>
+      </c>
+      <c r="D14">
+        <v>0.0289166058240675</v>
+      </c>
+      <c r="E14">
+        <v>0.04743721490401423</v>
+      </c>
+      <c r="F14">
+        <v>0.05124748859319046</v>
+      </c>
+      <c r="G14">
+        <v>0.0601872882405932</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0.03229000258205827</v>
+        <v>-0.03221112809753711</v>
       </c>
       <c r="C15">
-        <v>0.06672059335229606</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>-0.06450862799610917</v>
+      </c>
+      <c r="D15">
+        <v>-0.02385298130434895</v>
+      </c>
+      <c r="E15">
+        <v>0.05081834944100024</v>
+      </c>
+      <c r="F15">
+        <v>0.02648062728020171</v>
+      </c>
+      <c r="G15">
+        <v>0.01907313352510106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.05943309555259463</v>
+        <v>-0.05702710907188439</v>
       </c>
       <c r="C16">
-        <v>0.1577851844373284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>-0.1570354171949027</v>
+      </c>
+      <c r="D16">
+        <v>0.01143620261167013</v>
+      </c>
+      <c r="E16">
+        <v>0.03302157301642068</v>
+      </c>
+      <c r="F16">
+        <v>0.06329203941586653</v>
+      </c>
+      <c r="G16">
+        <v>0.1223558066827686</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.008833983379201006</v>
       </c>
       <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>-0.00395802779362317</v>
+      </c>
+      <c r="D17">
+        <v>-0.00467193034963539</v>
+      </c>
+      <c r="E17">
+        <v>0.001064137122079822</v>
+      </c>
+      <c r="F17">
+        <v>-0.0185685604103891</v>
+      </c>
+      <c r="G17">
+        <v>0.005172047375638164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B18">
-        <v>0.04754126846898468</v>
+        <v>-0.05766079144383802</v>
       </c>
       <c r="C18">
-        <v>0.05374602148470499</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+        <v>-0.04703226159825595</v>
+      </c>
+      <c r="D18">
+        <v>-0.03363453287889145</v>
+      </c>
+      <c r="E18">
+        <v>-0.06368330563764489</v>
+      </c>
+      <c r="F18">
+        <v>-0.03295622968389807</v>
+      </c>
+      <c r="G18">
+        <v>-0.190106864124925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -897,87 +1125,183 @@
       <c r="C19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.05973514999297693</v>
+        <v>-0.05844699780737374</v>
       </c>
       <c r="C20">
-        <v>0.1097936470805866</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+        <v>-0.1064790027624715</v>
+      </c>
+      <c r="D20">
+        <v>-0.004821825613573846</v>
+      </c>
+      <c r="E20">
+        <v>0.07156499335641529</v>
+      </c>
+      <c r="F20">
+        <v>0.04518575931499408</v>
+      </c>
+      <c r="G20">
+        <v>0.0556135818481878</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.04441952832926244</v>
+        <v>-0.04607082790654484</v>
       </c>
       <c r="C21">
-        <v>0.07218323263731212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>-0.0682746411571539</v>
+      </c>
+      <c r="D21">
+        <v>0.01582036354600945</v>
+      </c>
+      <c r="E21">
+        <v>0.04430800703853855</v>
+      </c>
+      <c r="F21">
+        <v>0.05784299438251882</v>
+      </c>
+      <c r="G21">
+        <v>0.0739792987393601</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.04551819360360797</v>
+        <v>-0.04559598985797841</v>
       </c>
       <c r="C22">
-        <v>0.0385544401554999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>-0.04262592477911216</v>
+      </c>
+      <c r="D22">
+        <v>0.07683711355015599</v>
+      </c>
+      <c r="E22">
+        <v>-0.1913545571920581</v>
+      </c>
+      <c r="F22">
+        <v>-0.04393324266387429</v>
+      </c>
+      <c r="G22">
+        <v>0.02828499603682819</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.04552830200398938</v>
+        <v>-0.045604800041501</v>
       </c>
       <c r="C23">
-        <v>0.03854732741667181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>-0.04261979485644903</v>
+      </c>
+      <c r="D23">
+        <v>0.07688137849251581</v>
+      </c>
+      <c r="E23">
+        <v>-0.191402012518199</v>
+      </c>
+      <c r="F23">
+        <v>-0.04398171965718408</v>
+      </c>
+      <c r="G23">
+        <v>0.02829403442199166</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.06608273571511382</v>
+        <v>-0.06435345997965797</v>
       </c>
       <c r="C24">
-        <v>0.1416892045387195</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>-0.1380771685974305</v>
+      </c>
+      <c r="D24">
+        <v>0.0100105300567304</v>
+      </c>
+      <c r="E24">
+        <v>0.05428449144768694</v>
+      </c>
+      <c r="F24">
+        <v>0.0616441654100732</v>
+      </c>
+      <c r="G24">
+        <v>0.06525995977349645</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.07502668309073332</v>
+        <v>-0.07197326203962907</v>
       </c>
       <c r="C25">
-        <v>0.1235726409764271</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>-0.1216804433026462</v>
+      </c>
+      <c r="D25">
+        <v>0.01664194731598484</v>
+      </c>
+      <c r="E25">
+        <v>0.08482886000434983</v>
+      </c>
+      <c r="F25">
+        <v>0.06397110384671095</v>
+      </c>
+      <c r="G25">
+        <v>0.08562730285709984</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.05905660794118307</v>
+        <v>-0.06257056381149799</v>
       </c>
       <c r="C26">
-        <v>0.07215655563110569</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>-0.0760320106005338</v>
+      </c>
+      <c r="D26">
+        <v>0.03749833692583909</v>
+      </c>
+      <c r="E26">
+        <v>0.07750796226431893</v>
+      </c>
+      <c r="F26">
+        <v>0.03422375891701807</v>
+      </c>
+      <c r="G26">
+        <v>0.1272153746351112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -985,120 +1309,252 @@
       <c r="C27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.1690622286593085</v>
+        <v>-0.1736195500255694</v>
       </c>
       <c r="C28">
-        <v>-0.2272335885626423</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+        <v>0.2295383979108708</v>
+      </c>
+      <c r="D28">
+        <v>0.09345753014393078</v>
+      </c>
+      <c r="E28">
+        <v>0.1195458945236963</v>
+      </c>
+      <c r="F28">
+        <v>0.02104801942811554</v>
+      </c>
+      <c r="G28">
+        <v>0.09574538979655843</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.02577853092042318</v>
+        <v>-0.02684042669430148</v>
       </c>
       <c r="C29">
-        <v>0.05615384632861289</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+        <v>-0.05648979127000123</v>
+      </c>
+      <c r="D29">
+        <v>0.04988561388498594</v>
+      </c>
+      <c r="E29">
+        <v>0.0375106050027609</v>
+      </c>
+      <c r="F29">
+        <v>0.0372428512100348</v>
+      </c>
+      <c r="G29">
+        <v>0.05191956716176742</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02969400417359266</v>
+        <v>-0.03330425857121229</v>
       </c>
       <c r="C30">
-        <v>0.0720310559820173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+        <v>-0.07674015627274386</v>
+      </c>
+      <c r="D30">
+        <v>-0.04053448317190447</v>
+      </c>
+      <c r="E30">
+        <v>0.1356640936173625</v>
+      </c>
+      <c r="F30">
+        <v>0.06623954530993863</v>
+      </c>
+      <c r="G30">
+        <v>0.03158240285269976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.0549528797596795</v>
+        <v>-0.05382134267896016</v>
       </c>
       <c r="C31">
-        <v>0.03364961459178205</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+        <v>-0.03616907993378441</v>
+      </c>
+      <c r="D31">
+        <v>0.02062418999942015</v>
+      </c>
+      <c r="E31">
+        <v>-0.03271293677399733</v>
+      </c>
+      <c r="F31">
+        <v>0.04076688935927465</v>
+      </c>
+      <c r="G31">
+        <v>0.03861955054187976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.04510972659061669</v>
+        <v>-0.04847371411262187</v>
       </c>
       <c r="C32">
-        <v>0.05247744297853339</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+        <v>-0.04923970699643142</v>
+      </c>
+      <c r="D32">
+        <v>-0.0128041055866314</v>
+      </c>
+      <c r="E32">
+        <v>0.04393351172071615</v>
+      </c>
+      <c r="F32">
+        <v>-0.003288596877195921</v>
+      </c>
+      <c r="G32">
+        <v>0.04826495897784496</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.07957481437661984</v>
+        <v>-0.08351019084170702</v>
       </c>
       <c r="C33">
-        <v>0.1167142654294554</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>-0.124649480482815</v>
+      </c>
+      <c r="D33">
+        <v>0.01804929650008317</v>
+      </c>
+      <c r="E33">
+        <v>0.04753617084993741</v>
+      </c>
+      <c r="F33">
+        <v>0.03641958853646433</v>
+      </c>
+      <c r="G33">
+        <v>0.03055004156858977</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>0.05400178896509634</v>
+        <v>-0.05284223914079223</v>
       </c>
       <c r="C34">
-        <v>0.1256984135866129</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+        <v>-0.1250897165282872</v>
+      </c>
+      <c r="D34">
+        <v>-0.01333444896604222</v>
+      </c>
+      <c r="E34">
+        <v>0.02462942480597232</v>
+      </c>
+      <c r="F34">
+        <v>0.04537857067962817</v>
+      </c>
+      <c r="G34">
+        <v>0.1401041061232602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0.02752367863781777</v>
+        <v>-0.02962496278067477</v>
       </c>
       <c r="C35">
-        <v>0.01751934337466325</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>-0.02073526232632076</v>
+      </c>
+      <c r="D35">
+        <v>0.008696756574428094</v>
+      </c>
+      <c r="E35">
+        <v>0.02141653524951587</v>
+      </c>
+      <c r="F35">
+        <v>0.0029074779249243</v>
+      </c>
+      <c r="G35">
+        <v>0.03794205038106858</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.0275132021883602</v>
+        <v>-0.02974876657961198</v>
       </c>
       <c r="C36">
-        <v>0.0543765941630584</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>-0.05255790090434566</v>
+      </c>
+      <c r="D36">
+        <v>-0.0281492024364349</v>
+      </c>
+      <c r="E36">
+        <v>-0.01051523228404953</v>
+      </c>
+      <c r="F36">
+        <v>0.006290715586462096</v>
+      </c>
+      <c r="G36">
+        <v>0.1138573204014317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B37">
-        <v>0.0005532910518602002</v>
+        <v>-0.004922955162266355</v>
       </c>
       <c r="C37">
-        <v>-0.0004211930755737782</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>-0.006779187423949506</v>
+      </c>
+      <c r="D37">
+        <v>0.008312259839446232</v>
+      </c>
+      <c r="E37">
+        <v>0.007479234720892731</v>
+      </c>
+      <c r="F37">
+        <v>0.01040803136280812</v>
+      </c>
+      <c r="G37">
+        <v>-0.004759891123782518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1106,43 +1562,91 @@
       <c r="C38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.08171668636061556</v>
+        <v>-0.07658108624767095</v>
       </c>
       <c r="C39">
-        <v>0.1511011860975732</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>-0.1444049712781035</v>
+      </c>
+      <c r="D39">
+        <v>0.07225268056881486</v>
+      </c>
+      <c r="E39">
+        <v>0.06798540351109533</v>
+      </c>
+      <c r="F39">
+        <v>0.0763858715472623</v>
+      </c>
+      <c r="G39">
+        <v>0.1633535271776952</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.05261360822037293</v>
+        <v>-0.05462219046831719</v>
       </c>
       <c r="C40">
-        <v>0.07514037949189148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
+        <v>-0.08106658456578889</v>
+      </c>
+      <c r="D40">
+        <v>0.01977212143495178</v>
+      </c>
+      <c r="E40">
+        <v>0.06003689787622835</v>
+      </c>
+      <c r="F40">
+        <v>-0.03723182348179586</v>
+      </c>
+      <c r="G40">
+        <v>0.02395497690239141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.03115084592221727</v>
+        <v>-0.03074388249282594</v>
       </c>
       <c r="C41">
-        <v>0.02278319443077523</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3">
+        <v>-0.0247829227178876</v>
+      </c>
+      <c r="D41">
+        <v>-0.001770974737842197</v>
+      </c>
+      <c r="E41">
+        <v>-0.001105957116407948</v>
+      </c>
+      <c r="F41">
+        <v>-0.02189934710256154</v>
+      </c>
+      <c r="G41">
+        <v>0.01061778151141888</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1150,98 +1654,206 @@
       <c r="C42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:3">
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.04487357828979197</v>
+        <v>-0.04261950367485717</v>
       </c>
       <c r="C43">
-        <v>0.04005936109098498</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3">
+        <v>-0.03827665196407264</v>
+      </c>
+      <c r="D43">
+        <v>0.03536062751444304</v>
+      </c>
+      <c r="E43">
+        <v>-0.03026870763902421</v>
+      </c>
+      <c r="F43">
+        <v>0.005123888228412355</v>
+      </c>
+      <c r="G43">
+        <v>0.04741887098662408</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.05556157704609361</v>
+        <v>-0.05965504474783077</v>
       </c>
       <c r="C44">
-        <v>0.09558226267223774</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
+        <v>-0.09721038805188016</v>
+      </c>
+      <c r="D44">
+        <v>-0.08533595401655773</v>
+      </c>
+      <c r="E44">
+        <v>0.09879382377270753</v>
+      </c>
+      <c r="F44">
+        <v>0.06924212518065548</v>
+      </c>
+      <c r="G44">
+        <v>0.123581780001933</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>-0.0008931529262313371</v>
       </c>
       <c r="C45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
+        <v>-0.0006639464790633076</v>
+      </c>
+      <c r="D45">
+        <v>0.0008814987510826057</v>
+      </c>
+      <c r="E45">
+        <v>-0.0007778886508078129</v>
+      </c>
+      <c r="F45">
+        <v>0.007112932902437221</v>
+      </c>
+      <c r="G45">
+        <v>-0.006410622546516092</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.02983848229186278</v>
+        <v>-0.03040886829965729</v>
       </c>
       <c r="C46">
-        <v>0.04669996055497341</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3">
+        <v>-0.04455359434661982</v>
+      </c>
+      <c r="D46">
+        <v>0.05842657658192792</v>
+      </c>
+      <c r="E46">
+        <v>0.01442125836602153</v>
+      </c>
+      <c r="F46">
+        <v>0.04647005133561782</v>
+      </c>
+      <c r="G46">
+        <v>0.06441387995910176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.05732479935081577</v>
+        <v>-0.05450033942097142</v>
       </c>
       <c r="C47">
-        <v>0.04571367651207155</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>-0.0448786422073267</v>
+      </c>
+      <c r="D47">
+        <v>0.03145312223950461</v>
+      </c>
+      <c r="E47">
+        <v>-0.1014614296269545</v>
+      </c>
+      <c r="F47">
+        <v>-0.006690660093179457</v>
+      </c>
+      <c r="G47">
+        <v>-0.03223073083177734</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.05028008381239583</v>
+        <v>-0.0516116911824583</v>
       </c>
       <c r="C48">
-        <v>0.06465703231511716</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>-0.06494794795367373</v>
+      </c>
+      <c r="D48">
+        <v>0.004652951300042469</v>
+      </c>
+      <c r="E48">
+        <v>0.04695088923233412</v>
+      </c>
+      <c r="F48">
+        <v>0.06690740847727315</v>
+      </c>
+      <c r="G48">
+        <v>0.03739710855230742</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B49">
-        <v>0.1822510545610998</v>
+        <v>-0.190050585752474</v>
       </c>
       <c r="C49">
-        <v>-0.03011774515645154</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3">
+        <v>0.02641264438310762</v>
+      </c>
+      <c r="D49">
+        <v>-0.06720585348705378</v>
+      </c>
+      <c r="E49">
+        <v>0.1084664601995358</v>
+      </c>
+      <c r="F49">
+        <v>-0.02865945560143306</v>
+      </c>
+      <c r="G49">
+        <v>-0.1198110536712893</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.0541753307304457</v>
+        <v>-0.05380999340282577</v>
       </c>
       <c r="C50">
-        <v>0.03515037182778655</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>-0.03772887436136344</v>
+      </c>
+      <c r="D50">
+        <v>0.0007087446191182423</v>
+      </c>
+      <c r="E50">
+        <v>-0.02299668152205249</v>
+      </c>
+      <c r="F50">
+        <v>0.04971061675761249</v>
+      </c>
+      <c r="G50">
+        <v>0.03469160061823814</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1249,65 +1861,137 @@
       <c r="C51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:3">
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B52">
-        <v>0.1397418707750073</v>
+        <v>-0.1355758279913487</v>
       </c>
       <c r="C52">
-        <v>0.03623303205859209</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3">
+        <v>-0.03352866186515994</v>
+      </c>
+      <c r="D52">
+        <v>-0.06606248402741804</v>
+      </c>
+      <c r="E52">
+        <v>-0.1266597674562597</v>
+      </c>
+      <c r="F52">
+        <v>0.06343287175837707</v>
+      </c>
+      <c r="G52">
+        <v>0.04717039881552051</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.166223344655389</v>
+        <v>-0.1606602918509359</v>
       </c>
       <c r="C53">
-        <v>-0.007757303287085134</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3">
+        <v>0.007074261997904054</v>
+      </c>
+      <c r="D53">
+        <v>-0.09805405793174435</v>
+      </c>
+      <c r="E53">
+        <v>-0.1661860487540039</v>
+      </c>
+      <c r="F53">
+        <v>0.08944886507481166</v>
+      </c>
+      <c r="G53">
+        <v>-0.04537998811342422</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>0.01358346199969183</v>
+        <v>-0.01452456071626971</v>
       </c>
       <c r="C54">
-        <v>0.0421160694562616</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3">
+        <v>-0.04262546637423939</v>
+      </c>
+      <c r="D54">
+        <v>0.01696906771819445</v>
+      </c>
+      <c r="E54">
+        <v>0.03369771778835392</v>
+      </c>
+      <c r="F54">
+        <v>0.03681510813800876</v>
+      </c>
+      <c r="G54">
+        <v>0.07706316205859254</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.1223013335294385</v>
+        <v>-0.1209589666681574</v>
       </c>
       <c r="C55">
-        <v>0.01546016341129361</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3">
+        <v>-0.01514732382565105</v>
+      </c>
+      <c r="D55">
+        <v>-0.0432484636281998</v>
+      </c>
+      <c r="E55">
+        <v>-0.1597895482606632</v>
+      </c>
+      <c r="F55">
+        <v>0.1212394301970245</v>
+      </c>
+      <c r="G55">
+        <v>0.06143263490776663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.1815400781605715</v>
+        <v>-0.177001364370273</v>
       </c>
       <c r="C56">
-        <v>-0.01415628705001167</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3">
+        <v>0.01587537891210115</v>
+      </c>
+      <c r="D56">
+        <v>-0.112290674080409</v>
+      </c>
+      <c r="E56">
+        <v>-0.2044684272930566</v>
+      </c>
+      <c r="F56">
+        <v>0.07120009836930402</v>
+      </c>
+      <c r="G56">
+        <v>-0.05075535961085985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1315,208 +1999,436 @@
       <c r="C57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:3">
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.04245638665867107</v>
+        <v>-0.0420712459739714</v>
       </c>
       <c r="C58">
-        <v>0.09801591565628036</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3">
+        <v>-0.1090383767537882</v>
+      </c>
+      <c r="D58">
+        <v>0.04025725678661594</v>
+      </c>
+      <c r="E58">
+        <v>0.02323246617986528</v>
+      </c>
+      <c r="F58">
+        <v>0.02434741427152147</v>
+      </c>
+      <c r="G58">
+        <v>0.04455154497459469</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.1798959486094596</v>
+        <v>-0.1863563967126652</v>
       </c>
       <c r="C59">
-        <v>-0.1612377058626236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
+        <v>0.1683658012750881</v>
+      </c>
+      <c r="D59">
+        <v>0.1104605570372324</v>
+      </c>
+      <c r="E59">
+        <v>0.04462230416366236</v>
+      </c>
+      <c r="F59">
+        <v>-0.01121789014704249</v>
+      </c>
+      <c r="G59">
+        <v>0.0935096434155626</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.206212771448269</v>
+        <v>-0.2049571056394025</v>
       </c>
       <c r="C60">
-        <v>0.004700616551847645</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
+        <v>-0.008432477782196513</v>
+      </c>
+      <c r="D60">
+        <v>-0.07364534672903836</v>
+      </c>
+      <c r="E60">
+        <v>-0.02377613936532334</v>
+      </c>
+      <c r="F60">
+        <v>-0.07208354981485698</v>
+      </c>
+      <c r="G60">
+        <v>-0.2018814524220787</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.06313863943106131</v>
+        <v>-0.06123280599434011</v>
       </c>
       <c r="C61">
-        <v>0.1301001763800855</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
+        <v>-0.1264927158772512</v>
+      </c>
+      <c r="D61">
+        <v>0.03145963852319993</v>
+      </c>
+      <c r="E61">
+        <v>0.07218822224003092</v>
+      </c>
+      <c r="F61">
+        <v>0.03969551179564782</v>
+      </c>
+      <c r="G61">
+        <v>0.1119971118015374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B62">
-        <v>0.1719463365112855</v>
+        <v>-0.1682979923310865</v>
       </c>
       <c r="C62">
-        <v>-0.008850944521218367</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
+        <v>0.009757868500322831</v>
+      </c>
+      <c r="D62">
+        <v>-0.0834060974052364</v>
+      </c>
+      <c r="E62">
+        <v>-0.1831808170162685</v>
+      </c>
+      <c r="F62">
+        <v>0.05854572390465122</v>
+      </c>
+      <c r="G62">
+        <v>-0.00774300227307021</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.04344433012288757</v>
+        <v>-0.04562993843190077</v>
       </c>
       <c r="C63">
-        <v>0.07659296140188905</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
+        <v>-0.08073823909498881</v>
+      </c>
+      <c r="D63">
+        <v>0.01888752979492474</v>
+      </c>
+      <c r="E63">
+        <v>0.02966343671843495</v>
+      </c>
+      <c r="F63">
+        <v>0.004957154868895372</v>
+      </c>
+      <c r="G63">
+        <v>0.1057435814941648</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.1145034788491932</v>
+        <v>-0.1121876450043001</v>
       </c>
       <c r="C64">
-        <v>0.06196338668432601</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
+        <v>-0.06356556469276549</v>
+      </c>
+      <c r="D64">
+        <v>-0.05638069480523013</v>
+      </c>
+      <c r="E64">
+        <v>0.00131982979221206</v>
+      </c>
+      <c r="F64">
+        <v>0.003992458288425049</v>
+      </c>
+      <c r="G64">
+        <v>-0.01601672477518169</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.1572380132843641</v>
+        <v>-0.1605272888990851</v>
       </c>
       <c r="C65">
-        <v>-0.05263519320066474</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3">
+        <v>0.04229679587043388</v>
+      </c>
+      <c r="D65">
+        <v>-0.02664886508669111</v>
+      </c>
+      <c r="E65">
+        <v>-0.02171595225492544</v>
+      </c>
+      <c r="F65">
+        <v>0.06393703683782075</v>
+      </c>
+      <c r="G65">
+        <v>-0.1436763974960308</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.0971322717252507</v>
+        <v>-0.09284514558100798</v>
       </c>
       <c r="C66">
-        <v>0.1282042364990093</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3">
+        <v>-0.1261431299351698</v>
+      </c>
+      <c r="D66">
+        <v>0.04447233032464697</v>
+      </c>
+      <c r="E66">
+        <v>0.07038969361599769</v>
+      </c>
+      <c r="F66">
+        <v>0.04619697288044125</v>
+      </c>
+      <c r="G66">
+        <v>0.1440463378392649</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>0.04960722866554323</v>
+        <v>-0.04307633464258562</v>
       </c>
       <c r="C67">
-        <v>0.08341512964720636</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3">
+        <v>-0.07633585322663344</v>
+      </c>
+      <c r="D67">
+        <v>0.03458020497349166</v>
+      </c>
+      <c r="E67">
+        <v>-0.08258870164105915</v>
+      </c>
+      <c r="F67">
+        <v>-0.02843751941456945</v>
+      </c>
+      <c r="G67">
+        <v>0.03136452926034124</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.1456577348208281</v>
+        <v>-0.1460793223072236</v>
       </c>
       <c r="C68">
-        <v>-0.2607550401851685</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3">
+        <v>0.254542324114178</v>
+      </c>
+      <c r="D68">
+        <v>0.07273121520212623</v>
+      </c>
+      <c r="E68">
+        <v>0.1354955806886687</v>
+      </c>
+      <c r="F68">
+        <v>0.06292979917698914</v>
+      </c>
+      <c r="G68">
+        <v>0.03186193350669301</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>0.03721899591052581</v>
+        <v>-0.0352250472124457</v>
       </c>
       <c r="C69">
-        <v>0.02102632138102208</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3">
+        <v>-0.02455087040273818</v>
+      </c>
+      <c r="D69">
+        <v>-0.01354356160318229</v>
+      </c>
+      <c r="E69">
+        <v>-0.07877953171927543</v>
+      </c>
+      <c r="F69">
+        <v>-0.02470881511547623</v>
+      </c>
+      <c r="G69">
+        <v>0.03123126145864406</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>0.07958231486873436</v>
+        <v>-0.07771635482751933</v>
       </c>
       <c r="C70">
-        <v>0.1053793988126378</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
+        <v>-0.1073235478894131</v>
+      </c>
+      <c r="D70">
+        <v>0.05851823457379431</v>
+      </c>
+      <c r="E70">
+        <v>0.08897346898786709</v>
+      </c>
+      <c r="F70">
+        <v>-0.0273065501760934</v>
+      </c>
+      <c r="G70">
+        <v>-0.03303266742370974</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.1673913287083963</v>
+        <v>-0.1697386662527667</v>
       </c>
       <c r="C71">
-        <v>-0.2616348995304867</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
+        <v>0.2587911769054851</v>
+      </c>
+      <c r="D71">
+        <v>0.08466448518354759</v>
+      </c>
+      <c r="E71">
+        <v>0.1444559826123281</v>
+      </c>
+      <c r="F71">
+        <v>0.04940606527879644</v>
+      </c>
+      <c r="G71">
+        <v>0.01218377593173047</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>0.1434124634594149</v>
+        <v>-0.1485435502129335</v>
       </c>
       <c r="C72">
-        <v>0.01073915583305522</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
+        <v>-0.009305499913098257</v>
+      </c>
+      <c r="D72">
+        <v>-0.02089958239619061</v>
+      </c>
+      <c r="E72">
+        <v>-0.1093819780576289</v>
+      </c>
+      <c r="F72">
+        <v>0.02947002199624658</v>
+      </c>
+      <c r="G72">
+        <v>0.04378351131938397</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.1872762699060298</v>
+        <v>-0.1973948597981738</v>
       </c>
       <c r="C73">
-        <v>0.02328563784062997</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
+        <v>-0.02672543703924434</v>
+      </c>
+      <c r="D73">
+        <v>-0.07129849358157959</v>
+      </c>
+      <c r="E73">
+        <v>-0.05251311736559167</v>
+      </c>
+      <c r="F73">
+        <v>-0.03650607612665789</v>
+      </c>
+      <c r="G73">
+        <v>-0.04711067609588843</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>0.08262018486305965</v>
+        <v>-0.08285010494142507</v>
       </c>
       <c r="C74">
-        <v>0.005408780505069862</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
+        <v>-0.01122753500514611</v>
+      </c>
+      <c r="D74">
+        <v>-0.0978219036302852</v>
+      </c>
+      <c r="E74">
+        <v>-0.08273896598482416</v>
+      </c>
+      <c r="F74">
+        <v>0.02872707685824158</v>
+      </c>
+      <c r="G74">
+        <v>-0.0007583560044336266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.1207270893479757</v>
+        <v>-0.1134862026947585</v>
       </c>
       <c r="C75">
-        <v>0.02730100196461037</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
+        <v>-0.02806460270840056</v>
+      </c>
+      <c r="D75">
+        <v>-0.04055517102222923</v>
+      </c>
+      <c r="E75">
+        <v>-0.1882351289507309</v>
+      </c>
+      <c r="F75">
+        <v>0.04670864468554847</v>
+      </c>
+      <c r="G75">
+        <v>-0.01575537407801723</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1524,285 +2436,597 @@
       <c r="C76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.07991194212957502</v>
+        <v>-0.08744174168175477</v>
       </c>
       <c r="C77">
-        <v>0.1200425162201435</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
+        <v>-0.1261721744932977</v>
+      </c>
+      <c r="D77">
+        <v>0.007774776244171258</v>
+      </c>
+      <c r="E77">
+        <v>0.1302943971112469</v>
+      </c>
+      <c r="F77">
+        <v>0.1126501804569111</v>
+      </c>
+      <c r="G77">
+        <v>-0.13262118479325</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.07312230748263618</v>
+        <v>-0.07986888853608502</v>
       </c>
       <c r="C78">
-        <v>0.139044575633173</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3">
+        <v>-0.1414708639085</v>
+      </c>
+      <c r="D78">
+        <v>0.07876385988540018</v>
+      </c>
+      <c r="E78">
+        <v>0.01667794202227094</v>
+      </c>
+      <c r="F78">
+        <v>0.1038940483441834</v>
+      </c>
+      <c r="G78">
+        <v>-0.2107462925811039</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.1692409418504599</v>
+        <v>-0.164886828995601</v>
       </c>
       <c r="C79">
-        <v>0.02185417929492126</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
+        <v>-0.02083548038146039</v>
+      </c>
+      <c r="D79">
+        <v>-0.02787630463046702</v>
+      </c>
+      <c r="E79">
+        <v>-0.1483775735450949</v>
+      </c>
+      <c r="F79">
+        <v>0.0564311574945691</v>
+      </c>
+      <c r="G79">
+        <v>-0.01764996076009522</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.0779181075363517</v>
+        <v>-0.07377902775742258</v>
       </c>
       <c r="C80">
-        <v>0.08079611202559579</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
+        <v>-0.07658019853621327</v>
+      </c>
+      <c r="D80">
+        <v>0.04366472511555281</v>
+      </c>
+      <c r="E80">
+        <v>0.07413890787166505</v>
+      </c>
+      <c r="F80">
+        <v>-0.06447809252546154</v>
+      </c>
+      <c r="G80">
+        <v>0.1229503964537161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.1131901117066933</v>
+        <v>-0.1066622309194752</v>
       </c>
       <c r="C81">
-        <v>-0.01081805665884775</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
+        <v>0.009598267065468329</v>
+      </c>
+      <c r="D81">
+        <v>-0.03189536291397478</v>
+      </c>
+      <c r="E81">
+        <v>-0.1955674707895638</v>
+      </c>
+      <c r="F81">
+        <v>-0.004934139996782633</v>
+      </c>
+      <c r="G81">
+        <v>0.003702699486227404</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0.1636647697161482</v>
+        <v>-0.1596998531534035</v>
       </c>
       <c r="C82">
-        <v>-0.02018235740569453</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
+        <v>0.01733180052438901</v>
+      </c>
+      <c r="D82">
+        <v>-0.137950066821938</v>
+      </c>
+      <c r="E82">
+        <v>-0.1564053510370582</v>
+      </c>
+      <c r="F82">
+        <v>0.04215150303305727</v>
+      </c>
+      <c r="G82">
+        <v>-0.02485370778184643</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.05403193781312035</v>
+        <v>-0.05087491145144929</v>
       </c>
       <c r="C83">
-        <v>0.06371497894316348</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
+        <v>-0.05764417835563754</v>
+      </c>
+      <c r="D83">
+        <v>0.02178376157186327</v>
+      </c>
+      <c r="E83">
+        <v>0.01354274807552207</v>
+      </c>
+      <c r="F83">
+        <v>-0.01390056466954345</v>
+      </c>
+      <c r="G83">
+        <v>0.04899885129289386</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0.04750090117955039</v>
+        <v>-0.04665566643061188</v>
       </c>
       <c r="C84">
-        <v>0.07384753369619701</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+        <v>-0.07233867601674346</v>
+      </c>
+      <c r="D84">
+        <v>0.0133960835716502</v>
+      </c>
+      <c r="E84">
+        <v>-0.01750224715632878</v>
+      </c>
+      <c r="F84">
+        <v>0.03442544122849495</v>
+      </c>
+      <c r="G84">
+        <v>0.06723062323455012</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.1400185451550236</v>
+        <v>-0.135499408233913</v>
       </c>
       <c r="C85">
-        <v>0.007638474993058799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
+        <v>-0.00664527581256068</v>
+      </c>
+      <c r="D85">
+        <v>-0.0669222491294017</v>
+      </c>
+      <c r="E85">
+        <v>-0.133388543507268</v>
+      </c>
+      <c r="F85">
+        <v>0.09381976073925079</v>
+      </c>
+      <c r="G85">
+        <v>0.008858965328812168</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.08197923116559146</v>
+        <v>-0.08236752810954427</v>
       </c>
       <c r="C86">
-        <v>0.148168589367278</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
+        <v>-0.1551268021281896</v>
+      </c>
+      <c r="D86">
+        <v>0.833119493767314</v>
+      </c>
+      <c r="E86">
+        <v>-0.2295737792466583</v>
+      </c>
+      <c r="F86">
+        <v>-0.2257788135552282</v>
+      </c>
+      <c r="G86">
+        <v>-0.09568536686661094</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.08864441428778787</v>
+        <v>-0.08384419276101969</v>
       </c>
       <c r="C87">
-        <v>0.1017665422306696</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
+        <v>-0.0977531561300114</v>
+      </c>
+      <c r="D87">
+        <v>-0.05038456311420035</v>
+      </c>
+      <c r="E87">
+        <v>0.2641578841401677</v>
+      </c>
+      <c r="F87">
+        <v>0.0195986216411677</v>
+      </c>
+      <c r="G87">
+        <v>0.03496696533078277</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.059807879476966</v>
+        <v>-0.05924574266525066</v>
       </c>
       <c r="C88">
-        <v>0.06417784952896637</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3">
+        <v>-0.06445152133939534</v>
+      </c>
+      <c r="D88">
+        <v>-0.02214318648484022</v>
+      </c>
+      <c r="E88">
+        <v>-0.03799015891748272</v>
+      </c>
+      <c r="F88">
+        <v>0.01037658827714886</v>
+      </c>
+      <c r="G88">
+        <v>-0.01452024193361386</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.1517214694606353</v>
+        <v>-0.1504524940621327</v>
       </c>
       <c r="C89">
-        <v>-0.2033644016270853</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
+        <v>0.2091218610920265</v>
+      </c>
+      <c r="D89">
+        <v>0.04130784529786929</v>
+      </c>
+      <c r="E89">
+        <v>0.1009943874292513</v>
+      </c>
+      <c r="F89">
+        <v>0.01786282197591041</v>
+      </c>
+      <c r="G89">
+        <v>0.01314167442623869</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.1863829868628806</v>
+        <v>-0.1877875250409835</v>
       </c>
       <c r="C90">
-        <v>-0.2466279350797844</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
+        <v>0.245597381811975</v>
+      </c>
+      <c r="D90">
+        <v>0.09965175845131759</v>
+      </c>
+      <c r="E90">
+        <v>0.1738343141038632</v>
+      </c>
+      <c r="F90">
+        <v>0.007767724936768601</v>
+      </c>
+      <c r="G90">
+        <v>-0.0537021658280133</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>0.1259763806046115</v>
+        <v>-0.1197928168392536</v>
       </c>
       <c r="C91">
-        <v>-0.01659376477924755</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
+        <v>0.01557264218323712</v>
+      </c>
+      <c r="D91">
+        <v>-0.02954311252629272</v>
+      </c>
+      <c r="E91">
+        <v>-0.2192131812903793</v>
+      </c>
+      <c r="F91">
+        <v>-0.009452805600217771</v>
+      </c>
+      <c r="G91">
+        <v>0.03683066124893579</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.1715571249086043</v>
+        <v>-0.1725220259464127</v>
       </c>
       <c r="C92">
-        <v>-0.2596477774064122</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
+        <v>0.2712488250298561</v>
+      </c>
+      <c r="D92">
+        <v>0.1376730833957572</v>
+      </c>
+      <c r="E92">
+        <v>0.1484586065924705</v>
+      </c>
+      <c r="F92">
+        <v>0.07289374272445387</v>
+      </c>
+      <c r="G92">
+        <v>0.09205893787768139</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.1797969511338217</v>
+        <v>-0.1861177229197341</v>
       </c>
       <c r="C93">
-        <v>-0.2305038282926757</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
+        <v>0.231475652169435</v>
+      </c>
+      <c r="D93">
+        <v>0.07759659012471429</v>
+      </c>
+      <c r="E93">
+        <v>0.07278923972047488</v>
+      </c>
+      <c r="F93">
+        <v>0.05394520021845794</v>
+      </c>
+      <c r="G93">
+        <v>0.01008002873631367</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.1199273938079318</v>
+        <v>-0.1148655615618827</v>
       </c>
       <c r="C94">
-        <v>0.03238217918105507</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
+        <v>-0.03232842157931752</v>
+      </c>
+      <c r="D94">
+        <v>-0.03345240736799517</v>
+      </c>
+      <c r="E94">
+        <v>-0.1696823573727342</v>
+      </c>
+      <c r="F94">
+        <v>0.04716178546526885</v>
+      </c>
+      <c r="G94">
+        <v>0.02764071425039233</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>0.1211370053131416</v>
+        <v>-0.1196959923201017</v>
       </c>
       <c r="C95">
-        <v>0.1052268685923629</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
+        <v>-0.1160389540768385</v>
+      </c>
+      <c r="D95">
+        <v>0.05800236657287461</v>
+      </c>
+      <c r="E95">
+        <v>0.06235633953348715</v>
+      </c>
+      <c r="F95">
+        <v>0.04422604933058303</v>
+      </c>
+      <c r="G95">
+        <v>0.09372804951878667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B96">
-        <v>0.1235141638862257</v>
+        <v>-0.1208750393837852</v>
       </c>
       <c r="C96">
-        <v>0.1050205343821827</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
+        <v>-0.1090169065618186</v>
+      </c>
+      <c r="D96">
+        <v>-0.02924459060971754</v>
+      </c>
+      <c r="E96">
+        <v>0.008878406003028175</v>
+      </c>
+      <c r="F96">
+        <v>0.03559449630778107</v>
+      </c>
+      <c r="G96">
+        <v>-0.02959023500617733</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B97">
-        <v>0.193695337536735</v>
+        <v>-0.1989823123205408</v>
       </c>
       <c r="C97">
-        <v>0.02471776163695542</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
+        <v>-0.01758462322858803</v>
+      </c>
+      <c r="D97">
+        <v>-0.2288821879793768</v>
+      </c>
+      <c r="E97">
+        <v>0.0218945441145584</v>
+      </c>
+      <c r="F97">
+        <v>-0.81597393792874</v>
+      </c>
+      <c r="G97">
+        <v>0.3300976124989969</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.1981379641440951</v>
+        <v>-0.2051490243253383</v>
       </c>
       <c r="C98">
-        <v>0.01246740014769125</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
+        <v>-0.01510990550781892</v>
+      </c>
+      <c r="D98">
+        <v>-0.04094002006251465</v>
+      </c>
+      <c r="E98">
+        <v>0.0963658898453315</v>
+      </c>
+      <c r="F98">
+        <v>-0.1438736318122796</v>
+      </c>
+      <c r="G98">
+        <v>-0.3182379784792306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B99">
-        <v>0.0502588594645061</v>
+        <v>-0.0503013425318825</v>
       </c>
       <c r="C99">
-        <v>0.05638524819336094</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
+        <v>-0.05598480996577666</v>
+      </c>
+      <c r="D99">
+        <v>0.002056682698839661</v>
+      </c>
+      <c r="E99">
+        <v>0.03749574351416367</v>
+      </c>
+      <c r="F99">
+        <v>0.02274416762729988</v>
+      </c>
+      <c r="G99">
+        <v>0.01455191877224764</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B100">
-        <v>0.115800067493235</v>
+        <v>-0.1105182383304912</v>
       </c>
       <c r="C100">
-        <v>0.2766595638279665</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
+        <v>-0.2662400905213031</v>
+      </c>
+      <c r="D100">
+        <v>-0.04304713327539843</v>
+      </c>
+      <c r="E100">
+        <v>0.2905107740654787</v>
+      </c>
+      <c r="F100">
+        <v>-0.2113316678276516</v>
+      </c>
+      <c r="G100">
+        <v>-0.5134802528471363</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.02574823124114961</v>
+        <v>-0.0268318227371342</v>
       </c>
       <c r="C101">
-        <v>0.05552100356482452</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
+        <v>-0.05585897648619077</v>
+      </c>
+      <c r="D101">
+        <v>0.04916736050566539</v>
+      </c>
+      <c r="E101">
+        <v>0.03452213381829145</v>
+      </c>
+      <c r="F101">
+        <v>0.03600428111822341</v>
+      </c>
+      <c r="G101">
+        <v>0.04745476387541468</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -1810,10 +3034,22 @@
       <c r="C102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -1821,15 +3057,39 @@
       <c r="C103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
       </c>
       <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
